--- a/LSL/Transactional Data/Management Reports/Additional Finance Reports.xlsx
+++ b/LSL/Transactional Data/Management Reports/Additional Finance Reports.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="175">
   <si>
     <t>Organization name</t>
   </si>
@@ -532,6 +532,21 @@
   </si>
   <si>
     <t>Rent!A1</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -834,7 +849,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -937,8 +952,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -957,13 +970,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2742,17 +2774,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G9"/>
+  <dimension ref="A3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.140625" style="71" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2766,6 +2800,15 @@
         <v>60</v>
       </c>
       <c r="D3" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2779,7 +2822,16 @@
       <c r="C4" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2793,7 +2845,16 @@
       <c r="C5" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="43">
@@ -2805,7 +2866,16 @@
       <c r="C6" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2819,57 +2889,116 @@
       <c r="C7" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="44" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+    <row r="8" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91">
         <v>5</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="93"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="88">
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="84">
         <v>6</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B12" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C12" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D12" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="45" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" location="KPI!A1" display="KPI!A1"/>
-    <hyperlink ref="D6" location="'Cost Centers'!A1" display="'Cost Centers'!A1"/>
-    <hyperlink ref="D8" location="SCHEDULE01!A1" display="SCHEDULE01!A1"/>
-    <hyperlink ref="E8" location="SCHEDULE02!A1" display="SCHEDULE02!A1"/>
-    <hyperlink ref="F8" location="SCHEDULE03!A1" display="SCHEDULE03!A1"/>
-    <hyperlink ref="G8" location="SCHEDULE04!A1" display="SCHEDULE04!A1"/>
-    <hyperlink ref="D9" location="'Supplier Return'!A1" display="'Supplier Return'!A1"/>
-    <hyperlink ref="D7" location="Rent!A1" display="Rent!A1"/>
+    <hyperlink ref="G4" location="KPI!A1" display="KPI!A1"/>
+    <hyperlink ref="G6" location="'Cost Centers'!A1" display="'Cost Centers'!A1"/>
+    <hyperlink ref="G11" location="SCHEDULE01!A1" display="SCHEDULE01!A1"/>
+    <hyperlink ref="G9" location="SCHEDULE03!A1" display="SCHEDULE03!A1"/>
+    <hyperlink ref="G10" location="SCHEDULE04!A1" display="SCHEDULE04!A1"/>
+    <hyperlink ref="G12" location="'Supplier Return'!A1" display="'Supplier Return'!A1"/>
+    <hyperlink ref="G7" location="Rent!A1" display="Rent!A1"/>
+    <hyperlink ref="G8" location="SCHEDULE02!A1" display="SCHEDULE02!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3548,215 +3677,215 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="78" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="78" t="s">
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="W3" s="82" t="s">
+      <c r="W3" s="80" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="75" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="76" t="s">
+      <c r="H4" s="78"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="L4" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="T4" s="75" t="s">
+      <c r="T4" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="V4" s="80"/>
-      <c r="W4" s="83"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="81"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85" t="s">
+      <c r="E6" s="83"/>
+      <c r="F6" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85" t="s">
+      <c r="I6" s="83"/>
+      <c r="J6" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="85" t="s">
+      <c r="K6" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="L6" s="85" t="s">
+      <c r="L6" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="85" t="s">
+      <c r="M6" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="N6" s="85" t="s">
+      <c r="N6" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="85" t="s">
+      <c r="O6" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="P6" s="85" t="s">
+      <c r="P6" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="Q6" s="85" t="s">
+      <c r="Q6" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="R6" s="85" t="s">
+      <c r="R6" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="S6" s="85" t="s">
+      <c r="S6" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="T6" s="85" t="s">
+      <c r="T6" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="V6" s="85" t="s">
+      <c r="V6" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="W6" s="85" t="s">
+      <c r="W6" s="83" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3774,9 +3903,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4032,9 +4159,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4317,28 +4442,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="70" t="s">
         <v>123</v>
       </c>
     </row>
